--- a/C++/Tutoring/TutorCode/server/backend/excel-files/CodingQuestions.xlsx
+++ b/C++/Tutoring/TutorCode/server/backend/excel-files/CodingQuestions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\programming\Unversity-ComputerScience\C++\Tutoring\TutorCode\server\backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B440DDA9-822D-4D03-9DD8-9927F700832B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83200E4-9C9D-497D-A593-7A099DBACC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -356,7 +356,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="73.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
